--- a/table/domain_cross.xlsx
+++ b/table/domain_cross.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15315" windowHeight="11565"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15315" windowHeight="11565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,25 +16,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>f101</t>
   </si>
   <si>
     <t>f256</t>
+  </si>
+  <si>
+    <t>Top-1</t>
+  </si>
+  <si>
+    <t>Warm</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>top-5</t>
+  </si>
+  <si>
+    <t>1 shot</t>
+  </si>
+  <si>
+    <t>5 shots</t>
+  </si>
+  <si>
+    <t>crape</t>
+  </si>
+  <si>
+    <t>chip butty</t>
+  </si>
+  <si>
+    <t>meat loaf</t>
+  </si>
+  <si>
+    <t>dried fish</t>
+  </si>
+  <si>
+    <t>scrambled egg</t>
+  </si>
+  <si>
+    <t>pork belly</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,8 +102,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,13 +731,227 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>47.24</v>
+      </c>
+      <c r="C3">
+        <v>36.89</v>
+      </c>
+      <c r="D3">
+        <v>54.62</v>
+      </c>
+      <c r="E3">
+        <v>49.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>80.77</v>
+      </c>
+      <c r="C4">
+        <v>71.78</v>
+      </c>
+      <c r="D4">
+        <v>92.2</v>
+      </c>
+      <c r="E4">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>84.16</v>
+      </c>
+      <c r="C8">
+        <v>62.29</v>
+      </c>
+      <c r="D8">
+        <v>56.2</v>
+      </c>
+      <c r="E8">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>80.97</v>
+      </c>
+      <c r="C9">
+        <v>65.819999999999993</v>
+      </c>
+      <c r="D9">
+        <v>55.03</v>
+      </c>
+      <c r="E9">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>67.78</v>
+      </c>
+      <c r="C10">
+        <v>53.15</v>
+      </c>
+      <c r="D10">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="E10">
+        <v>56.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>92</v>
+      </c>
+      <c r="C11">
+        <v>79.81</v>
+      </c>
+      <c r="D11">
+        <v>83.85</v>
+      </c>
+      <c r="E11">
+        <v>71.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>75.209999999999994</v>
+      </c>
+      <c r="C12">
+        <v>63.54</v>
+      </c>
+      <c r="D12">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>81.760000000000005</v>
+      </c>
+      <c r="C13">
+        <v>70.59</v>
+      </c>
+      <c r="D13">
+        <v>53.21</v>
+      </c>
+      <c r="E13">
+        <v>32.450000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>92.2</v>
+      </c>
+      <c r="C14">
+        <v>88.5</v>
+      </c>
+      <c r="D14">
+        <v>80.77</v>
+      </c>
+      <c r="E14">
+        <v>71.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
